--- a/reg/total.xlsx
+++ b/reg/total.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
     <t xml:space="preserve">part</t>
   </si>
@@ -44,19 +44,19 @@
     <t xml:space="preserve">estimate</t>
   </si>
   <si>
-    <t xml:space="preserve">-1.047</t>
+    <t xml:space="preserve">-0.642</t>
   </si>
   <si>
     <t xml:space="preserve"/>
   </si>
   <si>
-    <t xml:space="preserve">-2.108***</t>
+    <t xml:space="preserve">-1.407***</t>
   </si>
   <si>
     <t xml:space="preserve">std.error</t>
   </si>
   <si>
-    <t xml:space="preserve">(1.071)</t>
+    <t xml:space="preserve">(0.987)</t>
   </si>
   <si>
     <t xml:space="preserve">(0.011)</t>
@@ -65,94 +65,103 @@
     <t xml:space="preserve">LIDSD_INST</t>
   </si>
   <si>
-    <t xml:space="preserve">7.185***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.585+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.632***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.704*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.757)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.803)</t>
+    <t xml:space="preserve">5.718***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.080</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.076***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.415+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.714)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.699)</t>
   </si>
   <si>
     <t xml:space="preserve">(0.008)</t>
   </si>
   <si>
-    <t xml:space="preserve">(0.722)</t>
+    <t xml:space="preserve">(0.739)</t>
   </si>
   <si>
     <t xml:space="preserve">LIDSD_LABOUR</t>
   </si>
   <si>
-    <t xml:space="preserve">-1.039***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.559***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.114***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.245)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.402)</t>
+    <t xml:space="preserve">-0.993***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.439***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.064**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.226)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.358)</t>
   </si>
   <si>
     <t xml:space="preserve">(0.002)</t>
   </si>
   <si>
-    <t xml:space="preserve">(0.338)</t>
+    <t xml:space="preserve">(0.330)</t>
   </si>
   <si>
     <t xml:space="preserve">LIDSD_BUSINESS</t>
   </si>
   <si>
-    <t xml:space="preserve">0.327*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.354***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.146)</t>
+    <t xml:space="preserve">1.348***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.177***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.172)</t>
   </si>
   <si>
     <t xml:space="preserve">(0.289)</t>
   </si>
   <si>
-    <t xml:space="preserve">(0.241)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">y23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.245*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.229)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.098)</t>
+    <t xml:space="preserve">(0.240)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LIDSD_MARKET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.506***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.341***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.444***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.163**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.053)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.001)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.062)</t>
   </si>
   <si>
     <t xml:space="preserve">gof</t>
@@ -167,25 +176,25 @@
     <t xml:space="preserve">R2</t>
   </si>
   <si>
-    <t xml:space="preserve">0.178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.693</t>
+    <t xml:space="preserve">0.304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.700</t>
   </si>
   <si>
     <t xml:space="preserve">R2 Within</t>
   </si>
   <si>
-    <t xml:space="preserve">0.019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.107</t>
+    <t xml:space="preserve">0.097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.128</t>
   </si>
 </sst>
 </file>
@@ -735,16 +744,16 @@
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="G10" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11">
@@ -758,70 +767,70 @@
         <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F11" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B12" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C12" t="s">
         <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E12" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F12" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G12" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B13" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C13" t="s">
         <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E13" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F13" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G13" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B14" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C14" t="s">
         <v>11</v>
@@ -830,13 +839,13 @@
         <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F14" t="s">
         <v>11</v>
       </c>
       <c r="G14" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/reg/total.xlsx
+++ b/reg/total.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
   <si>
     <t xml:space="preserve">part</t>
   </si>
@@ -44,124 +44,229 @@
     <t xml:space="preserve">estimate</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.642</t>
+    <t xml:space="preserve">4.502***</t>
   </si>
   <si>
     <t xml:space="preserve"/>
   </si>
   <si>
-    <t xml:space="preserve">-1.407***</t>
+    <t xml:space="preserve">3.380***</t>
   </si>
   <si>
     <t xml:space="preserve">std.error</t>
   </si>
   <si>
-    <t xml:space="preserve">(0.987)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.011)</t>
+    <t xml:space="preserve">(0.989)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.013)</t>
   </si>
   <si>
     <t xml:space="preserve">LIDSD_INST</t>
   </si>
   <si>
-    <t xml:space="preserve">5.718***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.080</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.076***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.415+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.714)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.699)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.008)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.739)</t>
+    <t xml:space="preserve">4.515***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.973***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.656)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.614)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.009)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.629)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LIDSD_INFRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.468**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.420*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.173***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.161)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.187)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.002)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.118)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LIDSD_ICT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.437***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.470+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.300)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.362)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.004)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.272)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LIDSD_SKILLS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-3.135***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-2.221***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-3.715***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-2.444***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.370)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.570)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.305)</t>
   </si>
   <si>
     <t xml:space="preserve">LIDSD_LABOUR</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.993***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.400</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.439***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.064**</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.226)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.358)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.002)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.330)</t>
+    <t xml:space="preserve">-0.761**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.625***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.239)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.261)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.003)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.198)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LIDSD_MARKET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.325***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.327***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.271***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.227***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.056)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.059)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.001)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.037)</t>
   </si>
   <si>
     <t xml:space="preserve">LIDSD_BUSINESS</t>
   </si>
   <si>
-    <t xml:space="preserve">1.348***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.177***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.172)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.289)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.240)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LIDSD_MARKET</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.506***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.341***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.444***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.163**</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.053)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.001)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.062)</t>
+    <t xml:space="preserve">0.839***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.777***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.162)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.373)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.264)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LIDSD_INNOVATION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.709***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.336***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.650***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.224**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.068)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.084)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.078)</t>
   </si>
   <si>
     <t xml:space="preserve">gof</t>
@@ -170,31 +275,31 @@
     <t xml:space="preserve">Num.Obs.</t>
   </si>
   <si>
-    <t xml:space="preserve">506</t>
+    <t xml:space="preserve">490</t>
   </si>
   <si>
     <t xml:space="preserve">R2</t>
   </si>
   <si>
-    <t xml:space="preserve">0.304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.700</t>
+    <t xml:space="preserve">0.486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.753</t>
   </si>
   <si>
     <t xml:space="preserve">R2 Within</t>
   </si>
   <si>
-    <t xml:space="preserve">0.097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.128</t>
+    <t xml:space="preserve">0.202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.257</t>
   </si>
 </sst>
 </file>
@@ -727,10 +832,10 @@
         <v>40</v>
       </c>
       <c r="F9" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10">
@@ -738,22 +843,22 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C10" t="s">
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11">
@@ -761,91 +866,275 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C11" t="s">
         <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E11" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F11" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="B12" t="s">
         <v>51</v>
       </c>
       <c r="C12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
         <v>52</v>
       </c>
       <c r="E12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F12" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G12" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C13" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D13" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E13" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F13" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G13" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" t="s">
+        <v>61</v>
+      </c>
+      <c r="E14" t="s">
+        <v>62</v>
+      </c>
+      <c r="F14" t="s">
+        <v>63</v>
+      </c>
+      <c r="G14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" t="s">
+        <v>65</v>
+      </c>
+      <c r="E15" t="s">
+        <v>66</v>
+      </c>
+      <c r="F15" t="s">
+        <v>67</v>
+      </c>
+      <c r="G15" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" t="s">
+        <v>70</v>
+      </c>
+      <c r="E16" t="s">
+        <v>71</v>
+      </c>
+      <c r="F16" t="s">
+        <v>72</v>
+      </c>
+      <c r="G16" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" t="s">
+        <v>74</v>
+      </c>
+      <c r="E17" t="s">
+        <v>75</v>
+      </c>
+      <c r="F17" t="s">
+        <v>32</v>
+      </c>
+      <c r="G17" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" t="s">
+        <v>78</v>
+      </c>
+      <c r="E18" t="s">
+        <v>79</v>
+      </c>
+      <c r="F18" t="s">
+        <v>80</v>
+      </c>
+      <c r="G18" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" t="s">
+        <v>77</v>
+      </c>
+      <c r="C19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" t="s">
+        <v>82</v>
+      </c>
+      <c r="E19" t="s">
+        <v>83</v>
+      </c>
+      <c r="F19" t="s">
+        <v>67</v>
+      </c>
+      <c r="G19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>85</v>
+      </c>
+      <c r="B20" t="s">
+        <v>86</v>
+      </c>
+      <c r="C20" t="s">
         <v>11</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D20" t="s">
+        <v>87</v>
+      </c>
+      <c r="E20" t="s">
+        <v>87</v>
+      </c>
+      <c r="F20" t="s">
+        <v>87</v>
+      </c>
+      <c r="G20" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>85</v>
+      </c>
+      <c r="B21" t="s">
+        <v>88</v>
+      </c>
+      <c r="C21" t="s">
         <v>11</v>
       </c>
-      <c r="E14" t="s">
-        <v>59</v>
-      </c>
-      <c r="F14" t="s">
+      <c r="D21" t="s">
+        <v>89</v>
+      </c>
+      <c r="E21" t="s">
+        <v>90</v>
+      </c>
+      <c r="F21" t="s">
+        <v>91</v>
+      </c>
+      <c r="G21" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>85</v>
+      </c>
+      <c r="B22" t="s">
+        <v>93</v>
+      </c>
+      <c r="C22" t="s">
         <v>11</v>
       </c>
-      <c r="G14" t="s">
-        <v>60</v>
+      <c r="D22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" t="s">
+        <v>94</v>
+      </c>
+      <c r="F22" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
